--- a/USD:TWD/6 MONTH/20227/comparison.xlsx
+++ b/USD:TWD/6 MONTH/20227/comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>model</t>
   </si>
@@ -22,13 +22,22 @@
     <t>score</t>
   </si>
   <si>
-    <t>WMA</t>
+    <t>acc_for_gbm</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>SARIMA</t>
   </si>
   <si>
     <t>ARIMA</t>
   </si>
   <si>
-    <t>SARIMA</t>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Holt Winter</t>
   </si>
 </sst>
 </file>
@@ -386,51 +395,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2.71</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>4.43</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
